--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value82.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value82.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.323675159223209</v>
+        <v>4.659803867340088</v>
       </c>
       <c r="B1">
-        <v>1.425736709201714</v>
+        <v>2.421384572982788</v>
       </c>
       <c r="C1">
-        <v>1.618557523112014</v>
+        <v>0.4568744599819183</v>
       </c>
       <c r="D1">
-        <v>2.557598904044073</v>
+        <v>0.4378421902656555</v>
       </c>
       <c r="E1">
-        <v>3.380942197779571</v>
+        <v>0.4637913107872009</v>
       </c>
     </row>
   </sheetData>
